--- a/Group_Project/요구사항 정의서/요구사항 정의서.xlsx
+++ b/Group_Project/요구사항 정의서/요구사항 정의서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\수정-남정한1차 (1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16BD4E19-F8F4-43FB-A102-ACCD93497F5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F71A63-73D1-495B-B601-E9D72280157D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{D04A8385-7EDC-415B-B5F7-261453673990}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>화면 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소개(독거노인 소개, 기능 소개), 통계(지역별 독거노인수 카카오맵으로 제공), 동향(연도별 독거노인수 예측 정보 제공), 로그인으로 구분되어있고 각 구분된 영역 클릭 시 해당 기능으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,18 +135,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>독거노인이란 무엇인가에 대한 정보 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oldays에 있는 기능을 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-003-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,14 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oldays 기능 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통계 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-004-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,26 +163,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시각화 자료 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 지역별 독거노인 수를 막대그래프로 시각화하여 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버튼 삽입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>날짜 선택 박스 아래 동향 확인하기 버튼을 삽입하여 클릭 시 날짜에 맞는 독거노인 수 예측 결과 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-ID-005-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동향 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,15 +195,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RQ-ID-006-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RQ-ID-006-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면 중앙 박스에 날짜를 선택할 수 있는 기능을 드롭다운으로 삽입</t>
+    <t>예측(연도별 독거노인수 예측 정보 제공), 소개(독거노인 소개), 지역별 독거노인(지역별 독거노인수 카카오맵으로 제공),  로그인으로 구분되어있고 각 구분된 영역 클릭 시 해당 기능으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 독거노인 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 중앙 박스에 연도를 입력할 수 있는 박스 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도 선택 박스 아래 예측 확인하기 버튼을 삽입하여 클릭 시 연도에 맞는 독거노인수와 총인구수 예측 결과 제공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -289,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -347,53 +319,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -402,74 +336,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -786,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6788FF51-71DE-464E-9FA1-E9802C53C61B}">
-  <dimension ref="E2:Z19"/>
+  <dimension ref="E2:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:Z7"/>
+      <selection activeCell="E17" sqref="E17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -799,628 +700,556 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>45689</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="4" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="4" t="s">
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="5"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="11"/>
+    </row>
+    <row r="6" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+    </row>
+    <row r="7" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="17" t="s">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="19"/>
-    </row>
-    <row r="6" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="22"/>
-    </row>
-    <row r="7" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E7" s="4" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+    </row>
+    <row r="8" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="11"/>
-    </row>
-    <row r="8" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="9" t="s">
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+    </row>
+    <row r="9" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="11"/>
-    </row>
-    <row r="9" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+    </row>
+    <row r="10" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="11"/>
-    </row>
-    <row r="10" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+    </row>
+    <row r="11" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="11"/>
-    </row>
-    <row r="11" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="9" t="s">
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+    </row>
+    <row r="12" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="11"/>
-    </row>
-    <row r="12" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4" t="s">
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+    </row>
+    <row r="13" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="11"/>
-    </row>
-    <row r="13" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E13" s="4" t="s">
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+    </row>
+    <row r="14" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+    </row>
+    <row r="15" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="11"/>
-    </row>
-    <row r="14" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E14" s="4" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+    </row>
+    <row r="16" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="9" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="11"/>
-    </row>
-    <row r="15" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E15" s="4" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+    </row>
+    <row r="17" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E17" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="9" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="11"/>
-    </row>
-    <row r="16" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4" t="s">
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="11"/>
-    </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="K5:N6"/>
-    <mergeCell ref="O5:Z6"/>
-    <mergeCell ref="O16:Z16"/>
-    <mergeCell ref="O17:Z17"/>
-    <mergeCell ref="O18:Z18"/>
-    <mergeCell ref="O19:Z19"/>
-    <mergeCell ref="O10:Z10"/>
-    <mergeCell ref="O11:Z11"/>
-    <mergeCell ref="O12:Z12"/>
-    <mergeCell ref="O13:Z13"/>
+  <mergeCells count="55">
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="O14:Z14"/>
-    <mergeCell ref="O15:Z15"/>
-    <mergeCell ref="O7:Z7"/>
-    <mergeCell ref="O8:Z8"/>
-    <mergeCell ref="O9:Z9"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="Y2:Z3"/>
+    <mergeCell ref="E2:F3"/>
+    <mergeCell ref="G2:X3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:Z4"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="K16:N16"/>
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K13:N13"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="O15:Z15"/>
+    <mergeCell ref="O16:Z16"/>
+    <mergeCell ref="O17:Z17"/>
+    <mergeCell ref="O10:Z10"/>
+    <mergeCell ref="O11:Z11"/>
+    <mergeCell ref="O12:Z12"/>
+    <mergeCell ref="O13:Z13"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="K5:N6"/>
+    <mergeCell ref="O5:Z6"/>
+    <mergeCell ref="O7:Z7"/>
+    <mergeCell ref="O8:Z8"/>
+    <mergeCell ref="O9:Z9"/>
     <mergeCell ref="K7:N7"/>
     <mergeCell ref="K8:N8"/>
     <mergeCell ref="K9:N9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="Y2:Z3"/>
-    <mergeCell ref="E2:F3"/>
-    <mergeCell ref="G2:X3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
